--- a/INDIVIDUAL_ARGUMENTS/chrisathe_chris.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/chrisathe_chris.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="173" firstSheet="0" activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>#id</t>
   </si>
@@ -29,178 +28,268 @@
     <t>If God doesn't exist, how come there are loads of predictions, sent by God, written thousands of years before Jesus saying exactly what happened to Jesus?</t>
   </si>
   <si>
+    <t>154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg317490</t>
   </si>
   <si>
     <t>I have a personal relationship with Christ. I do believe.</t>
   </si>
   <si>
+    <t>57,0.0,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg434786</t>
   </si>
   <si>
     <t>I assume everyone on this side of this argument was raised in a Christian home, grow a pair and ask yourself, why do I worship a scruffy sandal wearing cultist.</t>
   </si>
   <si>
+    <t>160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11</t>
+  </si>
+  <si>
     <t>arg236317</t>
   </si>
   <si>
     <t>This is just wrong we should not insult who we believe in we do not need to know what you people think</t>
   </si>
   <si>
+    <t>102,0.0,10.12,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg636360</t>
   </si>
   <si>
     <t>One of the key component to Christianity is FAITH. Just you because you can't see it doesn't mean it's not there. Gravity, for example, you can't see it, feel it, or hear it, but you know it's there. Faith to Christians is the same way.</t>
   </si>
   <si>
+    <t>236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg229317</t>
   </si>
   <si>
     <t>Christianity strives to promote better morals and ethics. What does atheism contribute? Nothing. To believe that one should follow the ways of Christ, what harm is there. Real or not, Christ is still a better example to follow than any atheist. For a ideology to be better than any human must really piss off those that fall way short of it.</t>
   </si>
   <si>
+    <t>341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0</t>
+  </si>
+  <si>
     <t>arg245838</t>
   </si>
   <si>
     <t>why are we fighting, right now those scientologists are running rampant. We need to come together to fight them</t>
   </si>
   <si>
+    <t>111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg230311</t>
   </si>
   <si>
     <t>I found more peace in my belief and will continue to seek the Lord until the day I die.</t>
   </si>
   <si>
+    <t>87,0.0,9.26,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg231463</t>
   </si>
   <si>
     <t>I DON'T BELIEVE IN CHRISTIANITY NOR ATHEISM. I AM A MUSLIM, THATS THE BEST RELIGION...</t>
   </si>
   <si>
+    <t>86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg244447</t>
   </si>
   <si>
     <t>Oh lol. People to point this out believing in God is called "faith" and we don't need proof to deal with this atheist's. The idea of God is false is your own words, and I don't have to deal with this , whatever you think is your faith so we won't stop you. Both side contradicts each others belief and no one truthfully wins. This is probably a fight between two armies where both doesn't win until the end. Mainly , I support Christianity because of my "faith to God" and your proof that God doesn't exist doesn't change the case or turn it the other way around.</t>
   </si>
   <si>
+    <t>563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg229272</t>
   </si>
   <si>
     <t>Well, as an active Pastafarian, I am disappointed at the lack of recognition of our religion. Along with Islam, Judaism, Mormonism, Roman mythology, Greek mythology, Norse mythology, Hinduism, Sikhism, Jainism, Egyptian mythology, and Buddhism.  But seeing as I am a theist, I must be on this side.  Don't you wish there was a sarcasm feature on the internet?</t>
   </si>
   <si>
+    <t>359,0.25,16.32,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.1,0.22</t>
+  </si>
+  <si>
     <t>arg229582</t>
   </si>
   <si>
     <t>Atheists rely on proof even though they have none... So if my religion has no proof so that gives your religion proof atheists? Makes no sense. Where atheists have nothing to back themselves up with, when Christians do. And the thing they have to back themselves up with is the Bible, what do the atheists have? Evolution? Everyone knows evolution is a load of crap.</t>
   </si>
   <si>
+    <t>366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg254853</t>
   </si>
   <si>
     <t>all this debate proves is that the internet is full of conceded, stuck up, narcissistic, atheists who are totally bigoted and intolerant of other peoples beliefs and cant leave people alone to worship or not worship as they chose athieists are biggots plain and simple</t>
   </si>
   <si>
+    <t>268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22</t>
+  </si>
+  <si>
     <t>arg229346</t>
   </si>
   <si>
     <t>I love Jesus, so I am on this side .</t>
   </si>
   <si>
+    <t>36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg289787</t>
   </si>
   <si>
     <t>Christianity of course. Can't imagine life if I didn't believe in God. Actually I can, it would be hell.</t>
   </si>
   <si>
+    <t>104,0.0,8.62,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg237221</t>
   </si>
   <si>
     <t>Definitely Christianity :) and i am blessed to go to a christian school where i get to learn more about our amazing god :)</t>
   </si>
   <si>
+    <t>122,0.0,13.86,0.0,0.0,0.0,0.0,0.08,0.0,0.15,0.15,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg229291</t>
   </si>
   <si>
     <t>False Dichotomy.  I would also like to point that atheism predates Christianity, destroying your "test of time" argument (which was bullshit to begin with- argumentum ad populum). In fact, by definition, atheism predates religion.</t>
   </si>
   <si>
+    <t>230,0.33,19.46,0.0,0.12,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg247556</t>
   </si>
   <si>
     <t>Christianity, because I always root for the underdog. The membership of the atheist here is way bigger. Just look at the congregations of both.</t>
   </si>
   <si>
+    <t>143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg231279</t>
   </si>
   <si>
     <t>Science attests to the existence of God, its only a question of which one at this point.</t>
   </si>
   <si>
+    <t>88,0.0,12.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.05,0.11</t>
+  </si>
+  <si>
     <t>arg240139</t>
   </si>
   <si>
     <t>i am christian so i have to back up my religon and i also get to go to church.</t>
   </si>
   <si>
+    <t>78,1.0,6.47,0.0,0.05,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg236641</t>
   </si>
   <si>
     <t>I was raised in a Freewill Baptist Church and was lucky to encounter a church full of people who were actually kind and practiced what they preached. Now, I consider myself a non-denominational who still wholly believes in the beliefs and teachings of the Christians, only now I see it like this: I believe in God, not religion.</t>
   </si>
   <si>
+    <t>328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11</t>
+  </si>
+  <si>
     <t>arg608928</t>
   </si>
   <si>
     <t>Well though I behave as an atheist certainly I don't forget the principles and norms of Christianity;As this argument has heated up,Its better to conclude that this trend of atheism has not really gained that much ground and it would be anomalous to conceal our religion and say we support atheism.</t>
   </si>
   <si>
+    <t>298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11</t>
+  </si>
+  <si>
     <t>arg328209</t>
   </si>
   <si>
     <t>I am a Christian for I believe there is a just God who will do ultimate justice for the good and bad deeds done here on earth.</t>
   </si>
   <si>
+    <t>126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg238404</t>
   </si>
   <si>
     <t>You rather die believing in god,than not believing and finding out he exists!</t>
   </si>
   <si>
+    <t>77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg644073</t>
   </si>
   <si>
     <t>Christianity does offer hope in the world. Christianity does tell others to help the poor.</t>
   </si>
   <si>
+    <t>90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg234318</t>
   </si>
   <si>
     <t>God helps those who help themselves! So i will go and healp myself to school laptops then god will help me?</t>
   </si>
   <si>
+    <t>107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg230910</t>
   </si>
   <si>
     <t>This is the most idiotic debate i have ever seen. HOW you tell me please hoe did we get so perfect were the earth and sun and moon is in the right spot and are bodys function perfectly are hands made distinctively. Cause we were made after his own image.</t>
   </si>
   <si>
+    <t>254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11</t>
+  </si>
+  <si>
     <t>arg231008</t>
   </si>
   <si>
     <t>i'm not a Christianity but i mean if your a Christianity, you really can't argue with them at all unless your argument is base on on the same subject. kinda of like Street fighting and UFC. different platform.</t>
   </si>
   <si>
+    <t>209,0.33,12.81,0.0,0.03,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg296771</t>
   </si>
   <si>
     <t>I am neither Christian nor Atheist , but despite I beleive that Christianity is better than Atheism.If there is no place for God in your life , it can not even be callad as a "life".</t>
   </si>
   <si>
+    <t>182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg244440</t>
   </si>
   <si>
     <t>Atheism is based on science, but faith is based on the soul. An atheist is always looking for the absence of God, but religious person just believes. Atheism should be constantly fed, but faith shouldn't be.  Although I'm religious person, I think atheist can stand to hear besause everyone is indepent and everyone has to have his own opinion.</t>
+  </si>
+  <si>
+    <t>344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
   </si>
 </sst>
 </file>
@@ -208,40 +297,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -249,321 +342,680 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="2" sqref="B12 B31 B1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="B1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B1" activeCellId="2" pane="topLeft" sqref="B12 B31 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="107.801020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.90816326530612"/>
+    <col customWidth="1" max="2" min="2" style="1" width="107.801020408163"/>
+    <col customWidth="1" max="1025" min="3" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row customHeight="1" s="1" r="1" ht="12.8" spans="1:3">
+      <c s="0" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c s="0" r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row customHeight="1" s="1" r="2" ht="12.8" spans="1:3">
+      <c s="0" r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c s="0" r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="3" ht="12.8" spans="1:3">
+      <c s="0" r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c s="0" r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row customHeight="1" s="1" r="4" ht="12.8" spans="1:3">
+      <c s="0" r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c s="0" r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="5" ht="12.8" spans="1:3">
+      <c s="0" r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c s="0" r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row customHeight="1" s="1" r="6" ht="12.8" spans="1:3">
+      <c s="0" r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c s="0" r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="7" ht="12.8" spans="1:3">
+      <c s="0" r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c s="0" r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row customHeight="1" s="1" r="8" ht="12.8" spans="1:3">
+      <c s="0" r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c s="0" r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="9" ht="12.8" spans="1:3">
+      <c s="0" r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c s="0" r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row customHeight="1" s="1" r="10" ht="12.8" spans="1:3">
+      <c s="0" r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c s="0" r="B10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="11" ht="12.8" spans="1:3">
+      <c s="0" r="A11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c s="0" r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row customHeight="1" s="1" r="12" ht="12.8" spans="1:3">
+      <c s="0" r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c s="0" r="B12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="13" ht="12.8" spans="1:3">
+      <c s="0" r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c s="0" r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row customHeight="1" s="1" r="14" ht="12.8" spans="1:3">
+      <c s="0" r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c s="0" r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="15" ht="12.8" spans="1:3">
+      <c s="0" r="A15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c s="0" r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row customHeight="1" s="1" r="16" ht="12.8" spans="1:3">
+      <c s="0" r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c s="0" r="B16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="17" ht="12.8" spans="1:3">
+      <c s="0" r="A17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c s="0" r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row customHeight="1" s="1" r="18" ht="12.8" spans="1:3">
+      <c s="0" r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c s="0" r="B18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="19" ht="12.8" spans="1:3">
+      <c s="0" r="A19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c s="0" r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row customHeight="1" s="1" r="20" ht="12.8" spans="1:3">
+      <c s="0" r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c s="0" r="B20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="21" ht="12.8" spans="1:3">
+      <c s="0" r="A21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c s="0" r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
     </row>
+    <row customHeight="1" s="1" r="22" ht="12.8" spans="1:3">
+      <c s="0" r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c s="0" r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="23" ht="12.8" spans="1:3">
+      <c s="0" r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c s="0" r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="24" ht="12.8" spans="1:3">
+      <c s="0" r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c s="0" r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="25" ht="12.8" spans="1:3">
+      <c s="0" r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c s="0" r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="26" ht="12.8" spans="1:3">
+      <c s="0" r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c s="0" r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="27" ht="12.8" spans="1:3">
+      <c s="0" r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c s="0" r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="28" ht="12.8" spans="1:3">
+      <c s="0" r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c s="0" r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="29" ht="12.8" spans="1:3">
+      <c s="0" r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c s="0" r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="30" ht="12.8" spans="1:3">
+      <c s="0" r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c s="0" r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="31" ht="12.8" spans="1:3">
+      <c s="0" r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c s="0" r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INDIVIDUAL_ARGUMENTS/chrisathe_chris.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/chrisathe_chris.xlsx
@@ -28,7 +28,7 @@
     <t>If God doesn't exist, how come there are loads of predictions, sent by God, written thousands of years before Jesus saying exactly what happened to Jesus?</t>
   </si>
   <si>
-    <t>154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0</t>
+    <t>26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67</t>
   </si>
   <si>
     <t>arg317490</t>
@@ -37,7 +37,7 @@
     <t>I have a personal relationship with Christ. I do believe.</t>
   </si>
   <si>
-    <t>57,0.0,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>5.0,5.7,0.3,0.94,0.32,0.0,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.3,0.0,0.0,0.2,0.1,0.08,0.0,0.0,0.67</t>
   </si>
   <si>
     <t>arg434786</t>
@@ -46,7 +46,7 @@
     <t>I assume everyone on this side of this argument was raised in a Christian home, grow a pair and ask yourself, why do I worship a scruffy sandal wearing cultist.</t>
   </si>
   <si>
-    <t>160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11</t>
+    <t>30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62</t>
   </si>
   <si>
     <t>arg236317</t>
@@ -55,7 +55,7 @@
     <t>This is just wrong we should not insult who we believe in we do not need to know what you people think</t>
   </si>
   <si>
-    <t>102,0.0,10.12,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
+    <t>22.0,4.64,0.65,0.47,1.39,0.0,10.12,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.09,0.05,0.32,0.14,0.14,0.18,0.0,0.0,0.0,0.0,2.33</t>
   </si>
   <si>
     <t>arg636360</t>
@@ -64,7 +64,7 @@
     <t>One of the key component to Christianity is FAITH. Just you because you can't see it doesn't mean it's not there. Gravity, for example, you can't see it, feel it, or hear it, but you know it's there. Faith to Christians is the same way.</t>
   </si>
   <si>
-    <t>236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0</t>
+    <t>11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25</t>
   </si>
   <si>
     <t>arg229317</t>
@@ -73,7 +73,7 @@
     <t>Christianity strives to promote better morals and ethics. What does atheism contribute? Nothing. To believe that one should follow the ways of Christ, what harm is there. Real or not, Christ is still a better example to follow than any atheist. For a ideology to be better than any human must really piss off those that fall way short of it.</t>
   </si>
   <si>
-    <t>341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0</t>
+    <t>10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67</t>
   </si>
   <si>
     <t>arg245838</t>
@@ -82,7 +82,7 @@
     <t>why are we fighting, right now those scientologists are running rampant. We need to come together to fight them</t>
   </si>
   <si>
-    <t>111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>9.5,5.84,0.56,0.94,0.6,0.0,14.82,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.16,0.16,0.16,0.0,0.0,0.0,0.0,1.5</t>
   </si>
   <si>
     <t>arg230311</t>
@@ -91,7 +91,7 @@
     <t>I found more peace in my belief and will continue to seek the Lord until the day I die.</t>
   </si>
   <si>
-    <t>87,0.0,9.26,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>19.0,4.58,0.56,0.47,1.2,0.0,9.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.21,0.05,0.05,0.16,0.0,0.0,0.0,0.0,1.63</t>
   </si>
   <si>
     <t>arg231463</t>
@@ -100,7 +100,7 @@
     <t>I DON'T BELIEVE IN CHRISTIANITY NOR ATHEISM. I AM A MUSLIM, THATS THE BEST RELIGION...</t>
   </si>
   <si>
-    <t>86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25</t>
   </si>
   <si>
     <t>arg244447</t>
@@ -109,7 +109,7 @@
     <t>Oh lol. People to point this out believing in God is called "faith" and we don't need proof to deal with this atheist's. The idea of God is false is your own words, and I don't have to deal with this , whatever you think is your faith so we won't stop you. Both side contradicts each others belief and no one truthfully wins. This is probably a fight between two armies where both doesn't win until the end. Mainly , I support Christianity because of my "faith to God" and your proof that God doesn't exist doesn't change the case or turn it the other way around.</t>
   </si>
   <si>
-    <t>563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0</t>
+    <t>18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59</t>
   </si>
   <si>
     <t>arg229272</t>
@@ -118,7 +118,7 @@
     <t>Well, as an active Pastafarian, I am disappointed at the lack of recognition of our religion. Along with Islam, Judaism, Mormonism, Roman mythology, Greek mythology, Norse mythology, Hinduism, Sikhism, Jainism, Egyptian mythology, and Buddhism.  But seeing as I am a theist, I must be on this side.  Don't you wish there was a sarcasm feature on the internet?</t>
   </si>
   <si>
-    <t>359,0.25,16.32,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.1,0.22</t>
+    <t>14.5,6.19,1.72,1.87,0.92,0.25,16.32,0.0,0.02,1.0,0,0,0.0,0.0,21.95,0.31,0.03,0.14,0.0,0.0,0.09,0.03,0.15,0.22,0.22,1.04</t>
   </si>
   <si>
     <t>arg229582</t>
@@ -127,7 +127,7 @@
     <t>Atheists rely on proof even though they have none... So if my religion has no proof so that gives your religion proof atheists? Makes no sense. Where atheists have nothing to back themselves up with, when Christians do. And the thing they have to back themselves up with is the Bible, what do the atheists have? Evolution? Everyone knows evolution is a load of crap.</t>
   </si>
   <si>
-    <t>366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
+    <t>9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77</t>
   </si>
   <si>
     <t>arg254853</t>
@@ -136,7 +136,7 @@
     <t>all this debate proves is that the internet is full of conceded, stuck up, narcissistic, atheists who are totally bigoted and intolerant of other peoples beliefs and cant leave people alone to worship or not worship as they chose athieists are biggots plain and simple</t>
   </si>
   <si>
-    <t>268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22</t>
+    <t>45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85</t>
   </si>
   <si>
     <t>arg229346</t>
@@ -145,7 +145,7 @@
     <t>I love Jesus, so I am on this side .</t>
   </si>
   <si>
-    <t>36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
+    <t>10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67</t>
   </si>
   <si>
     <t>arg289787</t>
@@ -154,7 +154,7 @@
     <t>Christianity of course. Can't imagine life if I didn't believe in God. Actually I can, it would be hell.</t>
   </si>
   <si>
-    <t>104,0.0,8.62,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+    <t>6.33,5.47,0.56,1.4,0.4,0.0,8.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.05,0.26,0.0,0.0,0.16,0.0,0.0,0.0,0.0,3.8</t>
   </si>
   <si>
     <t>arg237221</t>
@@ -163,7 +163,7 @@
     <t>Definitely Christianity :) and i am blessed to go to a christian school where i get to learn more about our amazing god :)</t>
   </si>
   <si>
-    <t>122,0.0,13.86,0.0,0.0,0.0,0.0,0.08,0.0,0.15,0.15,0.1,0.0,0.0</t>
+    <t>24.0,5.08,0.71,0.47,1.52,0.0,13.86,0.0,0.0,0.0,0,0,0.0,0.08,0.0,0.21,0.13,0.25,0.04,0.04,0.04,0.0,0.0,0.0,0.0,2.71</t>
   </si>
   <si>
     <t>arg229291</t>
@@ -172,7 +172,7 @@
     <t>False Dichotomy.  I would also like to point that atheism predates Christianity, destroying your "test of time" argument (which was bullshit to begin with- argumentum ad populum). In fact, by definition, atheism predates religion.</t>
   </si>
   <si>
-    <t>230,0.33,19.46,0.0,0.12,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.05,0.0</t>
+    <t>11.33,6.76,1.01,1.4,0.72,0.33,19.46,0.0,0.12,1.0,0,0,0.0,0.0,2.44,0.41,0.12,0.26,0.03,0.03,0.06,0.06,0.08,0.0,0.0,1.72</t>
   </si>
   <si>
     <t>arg247556</t>
@@ -181,7 +181,7 @@
     <t>Christianity, because I always root for the underdog. The membership of the atheist here is way bigger. Just look at the congregations of both.</t>
   </si>
   <si>
-    <t>143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
+    <t>8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0</t>
   </si>
   <si>
     <t>arg231279</t>
@@ -190,7 +190,7 @@
     <t>Science attests to the existence of God, its only a question of which one at this point.</t>
   </si>
   <si>
-    <t>88,0.0,12.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.05,0.11</t>
+    <t>17.0,5.18,0.5,0.47,1.08,0.0,12.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.0,0.0,0.06,0.06,0.06,0.0,0.0,0.11,0.11,3.5</t>
   </si>
   <si>
     <t>arg240139</t>
@@ -199,7 +199,7 @@
     <t>i am christian so i have to back up my religon and i also get to go to church.</t>
   </si>
   <si>
-    <t>78,1.0,6.47,0.0,0.05,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
+    <t>19.0,4.11,0.56,0.47,1.2,1.0,6.47,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.05,0.0,0.0,0.0,0.0,1.5</t>
   </si>
   <si>
     <t>arg236641</t>
@@ -208,7 +208,7 @@
     <t>I was raised in a Freewill Baptist Church and was lucky to encounter a church full of people who were actually kind and practiced what they preached. Now, I consider myself a non-denominational who still wholly believes in the beliefs and teachings of the Christians, only now I see it like this: I believe in God, not religion.</t>
   </si>
   <si>
-    <t>328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11</t>
+    <t>29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63</t>
   </si>
   <si>
     <t>arg608928</t>
@@ -217,7 +217,7 @@
     <t>Well though I behave as an atheist certainly I don't forget the principles and norms of Christianity;As this argument has heated up,Its better to conclude that this trend of atheism has not really gained that much ground and it would be anomalous to conceal our religion and say we support atheism.</t>
   </si>
   <si>
-    <t>298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11</t>
+    <t>51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11</t>
   </si>
   <si>
     <t>arg328209</t>
@@ -226,7 +226,7 @@
     <t>I am a Christian for I believe there is a just God who will do ultimate justice for the good and bad deeds done here on earth.</t>
   </si>
   <si>
-    <t>126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
+    <t>27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63</t>
   </si>
   <si>
     <t>arg238404</t>
@@ -235,7 +235,7 @@
     <t>You rather die believing in god,than not believing and finding out he exists!</t>
   </si>
   <si>
-    <t>77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0</t>
+    <t>13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2</t>
   </si>
   <si>
     <t>arg644073</t>
@@ -244,7 +244,7 @@
     <t>Christianity does offer hope in the world. Christianity does tell others to help the poor.</t>
   </si>
   <si>
-    <t>90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8</t>
   </si>
   <si>
     <t>arg234318</t>
@@ -253,7 +253,7 @@
     <t>God helps those who help themselves! So i will go and healp myself to school laptops then god will help me?</t>
   </si>
   <si>
-    <t>107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
+    <t>10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6</t>
   </si>
   <si>
     <t>arg230910</t>
@@ -262,7 +262,7 @@
     <t>This is the most idiotic debate i have ever seen. HOW you tell me please hoe did we get so perfect were the earth and sun and moon is in the right spot and are bodys function perfectly are hands made distinctively. Cause we were made after his own image.</t>
   </si>
   <si>
-    <t>254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11</t>
+    <t>16.67,5.08,1.48,1.4,1.06,0.0,11.94,0.0,0.02,1.0,0,0,0.0,0.02,0.0,0.18,0.1,0.28,0.08,0.08,0.1,0.02,0.08,0.11,0.11,1.27</t>
   </si>
   <si>
     <t>arg231008</t>
@@ -271,7 +271,7 @@
     <t>i'm not a Christianity but i mean if your a Christianity, you really can't argue with them at all unless your argument is base on on the same subject. kinda of like Street fighting and UFC. different platform.</t>
   </si>
   <si>
-    <t>209,0.33,12.81,0.0,0.03,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>12.67,5.5,1.13,1.4,0.8,0.33,12.81,0.0,0.03,1.0,0,0,0.0,0.03,2.44,0.18,0.13,0.11,0.05,0.05,0.11,0.0,0.0,0.0,0.0,1.4</t>
   </si>
   <si>
     <t>arg296771</t>
@@ -280,7 +280,7 @@
     <t>I am neither Christian nor Atheist , but despite I beleive that Christianity is better than Atheism.If there is no place for God in your life , it can not even be callad as a "life".</t>
   </si>
   <si>
-    <t>182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
+    <t>36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0</t>
   </si>
   <si>
     <t>arg244440</t>
@@ -289,7 +289,7 @@
     <t>Atheism is based on science, but faith is based on the soul. An atheist is always looking for the absence of God, but religious person just believes. Atheism should be constantly fed, but faith shouldn't be.  Although I'm religious person, I think atheist can stand to hear besause everyone is indepent and everyone has to have his own opinion.</t>
   </si>
   <si>
-    <t>344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
+    <t>14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28</t>
   </si>
 </sst>
 </file>
